--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H2">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I2">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J2">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>22002.16677499812</v>
+        <v>27256.54313083051</v>
       </c>
       <c r="R2">
-        <v>22002.16677499812</v>
+        <v>245308.8881774746</v>
       </c>
       <c r="S2">
-        <v>0.1028779646475561</v>
+        <v>0.112769733708602</v>
       </c>
       <c r="T2">
-        <v>0.1028779646475561</v>
+        <v>0.1313308600738937</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H3">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I3">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J3">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>24641.7007643326</v>
+        <v>29168.42710679272</v>
       </c>
       <c r="R3">
-        <v>24641.7007643326</v>
+        <v>262515.8439611345</v>
       </c>
       <c r="S3">
-        <v>0.1152199256561123</v>
+        <v>0.1206798581075809</v>
       </c>
       <c r="T3">
-        <v>0.1152199256561123</v>
+        <v>0.140542936811556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H4">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I4">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J4">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>12677.48873130017</v>
+        <v>14646.4201590072</v>
       </c>
       <c r="R4">
-        <v>12677.48873130017</v>
+        <v>131817.7814310648</v>
       </c>
       <c r="S4">
-        <v>0.05927753620159538</v>
+        <v>0.06059729926820018</v>
       </c>
       <c r="T4">
-        <v>0.05927753620159538</v>
+        <v>0.07057119999602163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H5">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I5">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J5">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>15082.6466556676</v>
+        <v>16733.63133599466</v>
       </c>
       <c r="R5">
-        <v>15082.6466556676</v>
+        <v>150602.6820239519</v>
       </c>
       <c r="S5">
-        <v>0.07052359912099995</v>
+        <v>0.06923281285819233</v>
       </c>
       <c r="T5">
-        <v>0.07052359912099995</v>
+        <v>0.08062806002092879</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H6">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I6">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J6">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>29761.74490412552</v>
+        <v>33376.98304127868</v>
       </c>
       <c r="R6">
-        <v>29761.74490412552</v>
+        <v>200261.8982476721</v>
       </c>
       <c r="S6">
-        <v>0.1391602823216247</v>
+        <v>0.1380921077003368</v>
       </c>
       <c r="T6">
-        <v>0.1391602823216247</v>
+        <v>0.1072140823444994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H7">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I7">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J7">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>15357.07360981583</v>
+        <v>18144.50392781985</v>
       </c>
       <c r="R7">
-        <v>15357.07360981583</v>
+        <v>163300.5353503786</v>
       </c>
       <c r="S7">
-        <v>0.07180676758235714</v>
+        <v>0.07507008010493006</v>
       </c>
       <c r="T7">
-        <v>0.07180676758235714</v>
+        <v>0.0874261015058557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H8">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I8">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J8">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>17199.41569295478</v>
+        <v>19417.23268674098</v>
       </c>
       <c r="R8">
-        <v>17199.41569295478</v>
+        <v>174755.0941806688</v>
       </c>
       <c r="S8">
-        <v>0.08042121022503589</v>
+        <v>0.08033579859820704</v>
       </c>
       <c r="T8">
-        <v>0.08042121022503589</v>
+        <v>0.09355852122421777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H9">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I9">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J9">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>8848.63430157342</v>
+        <v>9750.026877143036</v>
       </c>
       <c r="R9">
-        <v>8848.63430157342</v>
+        <v>87750.24189428733</v>
       </c>
       <c r="S9">
-        <v>0.04137453807008063</v>
+        <v>0.04033922898107552</v>
       </c>
       <c r="T9">
-        <v>0.04137453807008063</v>
+        <v>0.04697878998714236</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H10">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I10">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J10">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>10527.3865656329</v>
+        <v>11139.46981630289</v>
       </c>
       <c r="R10">
-        <v>10527.3865656329</v>
+        <v>100255.228346726</v>
       </c>
       <c r="S10">
-        <v>0.04922406570252133</v>
+        <v>0.04608783435264671</v>
       </c>
       <c r="T10">
-        <v>0.04922406570252133</v>
+        <v>0.05367357645905775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H11">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I11">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J11">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>20773.1043911813</v>
+        <v>22218.84106815582</v>
       </c>
       <c r="R11">
-        <v>20773.1043911813</v>
+        <v>133313.046408935</v>
       </c>
       <c r="S11">
-        <v>0.09713110172423579</v>
+        <v>0.09192702018531199</v>
       </c>
       <c r="T11">
-        <v>0.09713110172423579</v>
+        <v>0.07137171903567416</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.188644155035509</v>
+        <v>0.278468</v>
       </c>
       <c r="H12">
-        <v>0.188644155035509</v>
+        <v>0.835404</v>
       </c>
       <c r="I12">
-        <v>0.0005167504201174162</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J12">
-        <v>0.0005167504201174162</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>23.34341781163578</v>
+        <v>38.48959225460267</v>
       </c>
       <c r="R12">
-        <v>23.34341781163578</v>
+        <v>346.406330291424</v>
       </c>
       <c r="S12">
-        <v>0.000109149400463028</v>
+        <v>0.0001592447379797997</v>
       </c>
       <c r="T12">
-        <v>0.000109149400463028</v>
+        <v>0.0001854553319702806</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.188644155035509</v>
+        <v>0.278468</v>
       </c>
       <c r="H13">
-        <v>0.188644155035509</v>
+        <v>0.835404</v>
       </c>
       <c r="I13">
-        <v>0.0005167504201174162</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J13">
-        <v>0.0005167504201174162</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>26.14385766699879</v>
+        <v>41.18940764644</v>
       </c>
       <c r="R13">
-        <v>26.14385766699879</v>
+        <v>370.70466881796</v>
       </c>
       <c r="S13">
-        <v>0.0001222437268256945</v>
+        <v>0.0001704148068083556</v>
       </c>
       <c r="T13">
-        <v>0.0001222437268256945</v>
+        <v>0.0001984639176793639</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.188644155035509</v>
+        <v>0.278468</v>
       </c>
       <c r="H14">
-        <v>0.188644155035509</v>
+        <v>0.835404</v>
       </c>
       <c r="I14">
-        <v>0.0005167504201174162</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J14">
-        <v>0.0005167504201174162</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>13.45030783937731</v>
+        <v>20.68254720357866</v>
       </c>
       <c r="R14">
-        <v>13.45030783937731</v>
+        <v>186.142924832208</v>
       </c>
       <c r="S14">
-        <v>6.289109197965911E-05</v>
+        <v>8.557084181100592E-05</v>
       </c>
       <c r="T14">
-        <v>6.289109197965911E-05</v>
+        <v>9.965521672087862E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.188644155035509</v>
+        <v>0.278468</v>
       </c>
       <c r="H15">
-        <v>0.188644155035509</v>
+        <v>0.835404</v>
       </c>
       <c r="I15">
-        <v>0.0005167504201174162</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J15">
-        <v>0.0005167504201174162</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>16.00208407603754</v>
+        <v>23.62994617364934</v>
       </c>
       <c r="R15">
-        <v>16.00208407603754</v>
+        <v>212.669515562844</v>
       </c>
       <c r="S15">
-        <v>7.482271435795679E-05</v>
+        <v>9.776524942140894E-05</v>
       </c>
       <c r="T15">
-        <v>7.482271435795679E-05</v>
+        <v>0.000113856740364662</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.188644155035509</v>
+        <v>0.278468</v>
       </c>
       <c r="H16">
-        <v>0.188644155035509</v>
+        <v>0.835404</v>
       </c>
       <c r="I16">
-        <v>0.0005167504201174162</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J16">
-        <v>0.0005167504201174162</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>31.57601945321966</v>
+        <v>47.13240640169401</v>
       </c>
       <c r="R16">
-        <v>31.57601945321966</v>
+        <v>282.794438410164</v>
       </c>
       <c r="S16">
-        <v>0.0001476434864910779</v>
+        <v>0.0001950030454504922</v>
       </c>
       <c r="T16">
-        <v>0.0001476434864910779</v>
+        <v>0.0001513994747456971</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.194865120116253</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H17">
-        <v>0.194865120116253</v>
+        <v>0.681052</v>
       </c>
       <c r="I17">
-        <v>0.000533791426865837</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J17">
-        <v>0.000533791426865837</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>24.1132194895307</v>
+        <v>31.37812816814578</v>
       </c>
       <c r="R17">
-        <v>24.1132194895307</v>
+        <v>282.403153513312</v>
       </c>
       <c r="S17">
-        <v>0.0001127488473090584</v>
+        <v>0.000129822154658846</v>
       </c>
       <c r="T17">
-        <v>0.0001127488473090584</v>
+        <v>0.0001511899928047071</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.194865120116253</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H18">
-        <v>0.194865120116253</v>
+        <v>0.681052</v>
       </c>
       <c r="I18">
-        <v>0.000533791426865837</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J18">
-        <v>0.000533791426865837</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>27.00601014445947</v>
+        <v>33.57911675838666</v>
       </c>
       <c r="R18">
-        <v>27.00601014445947</v>
+        <v>302.21205082548</v>
       </c>
       <c r="S18">
-        <v>0.0001262749885193288</v>
+        <v>0.0001389284047077153</v>
       </c>
       <c r="T18">
-        <v>0.0001262749885193288</v>
+        <v>0.0001617950692878728</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.194865120116253</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H19">
-        <v>0.194865120116253</v>
+        <v>0.681052</v>
       </c>
       <c r="I19">
-        <v>0.000533791426865837</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J19">
-        <v>0.000533791426865837</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>13.89386197641524</v>
+        <v>16.86117152670044</v>
       </c>
       <c r="R19">
-        <v>13.89386197641524</v>
+        <v>151.750543740304</v>
       </c>
       <c r="S19">
-        <v>6.496506711565881E-05</v>
+        <v>6.97604906812383E-05</v>
       </c>
       <c r="T19">
-        <v>6.496506711565881E-05</v>
+        <v>8.124259000218795E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.194865120116253</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H20">
-        <v>0.194865120116253</v>
+        <v>0.681052</v>
       </c>
       <c r="I20">
-        <v>0.000533791426865837</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J20">
-        <v>0.000533791426865837</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>16.52978877082346</v>
+        <v>19.26399933619689</v>
       </c>
       <c r="R20">
-        <v>16.52978877082346</v>
+        <v>173.375994025772</v>
       </c>
       <c r="S20">
-        <v>7.729016156393949E-05</v>
+        <v>7.970181929814724E-05</v>
       </c>
       <c r="T20">
-        <v>7.729016156393949E-05</v>
+        <v>9.282019327036232E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.194865120116253</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H21">
-        <v>0.194865120116253</v>
+        <v>0.681052</v>
       </c>
       <c r="I21">
-        <v>0.000533791426865837</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J21">
-        <v>0.000533791426865837</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>32.61730967697665</v>
+        <v>38.424067450822</v>
       </c>
       <c r="R21">
-        <v>32.61730967697665</v>
+        <v>230.544404704932</v>
       </c>
       <c r="S21">
-        <v>0.0001525123623578515</v>
+        <v>0.0001589736392334111</v>
       </c>
       <c r="T21">
-        <v>0.0001525123623578515</v>
+        <v>0.0001234264081504356</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>62.7654157191024</v>
+        <v>64.34001000000001</v>
       </c>
       <c r="H22">
-        <v>62.7654157191024</v>
+        <v>128.68002</v>
       </c>
       <c r="I22">
-        <v>0.1719324669008976</v>
+        <v>0.1635830409448661</v>
       </c>
       <c r="J22">
-        <v>0.1719324669008976</v>
+        <v>0.1153448476061565</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>7766.788867517408</v>
+        <v>8893.017332537522</v>
       </c>
       <c r="R22">
-        <v>7766.788867517408</v>
+        <v>53358.10399522513</v>
       </c>
       <c r="S22">
-        <v>0.03631603372107231</v>
+        <v>0.03679348447242661</v>
       </c>
       <c r="T22">
-        <v>0.03631603372107231</v>
+        <v>0.0285662934664454</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>62.7654157191024</v>
+        <v>64.34001000000001</v>
       </c>
       <c r="H23">
-        <v>62.7654157191024</v>
+        <v>128.68002</v>
       </c>
       <c r="I23">
-        <v>0.1719324669008976</v>
+        <v>0.1635830409448661</v>
       </c>
       <c r="J23">
-        <v>0.1719324669008976</v>
+        <v>0.1153448476061565</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>8698.547244473835</v>
+        <v>9516.8094713433</v>
       </c>
       <c r="R23">
-        <v>8698.547244473835</v>
+        <v>57100.8568280598</v>
       </c>
       <c r="S23">
-        <v>0.04067275941744845</v>
+        <v>0.03937432801685534</v>
       </c>
       <c r="T23">
-        <v>0.04067275941744845</v>
+        <v>0.03057004861870292</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>62.7654157191024</v>
+        <v>64.34001000000001</v>
       </c>
       <c r="H24">
-        <v>62.7654157191024</v>
+        <v>128.68002</v>
       </c>
       <c r="I24">
-        <v>0.1719324669008976</v>
+        <v>0.1635830409448661</v>
       </c>
       <c r="J24">
-        <v>0.1719324669008976</v>
+        <v>0.1153448476061565</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>4475.167348437116</v>
+        <v>4778.70094195284</v>
       </c>
       <c r="R24">
-        <v>4475.167348437116</v>
+        <v>28672.20565171704</v>
       </c>
       <c r="S24">
-        <v>0.0209250349282679</v>
+        <v>0.01977113642439541</v>
       </c>
       <c r="T24">
-        <v>0.0209250349282679</v>
+        <v>0.01535022010996715</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>62.7654157191024</v>
+        <v>64.34001000000001</v>
       </c>
       <c r="H25">
-        <v>62.7654157191024</v>
+        <v>128.68002</v>
       </c>
       <c r="I25">
-        <v>0.1719324669008976</v>
+        <v>0.1635830409448661</v>
       </c>
       <c r="J25">
-        <v>0.1719324669008976</v>
+        <v>0.1153448476061565</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>5324.190718845588</v>
+        <v>5459.697247482872</v>
       </c>
       <c r="R25">
-        <v>5324.190718845588</v>
+        <v>32758.18348489723</v>
       </c>
       <c r="S25">
-        <v>0.02489490740396816</v>
+        <v>0.02258865336565044</v>
       </c>
       <c r="T25">
-        <v>0.02489490740396816</v>
+        <v>0.01753772740764888</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>62.7654157191024</v>
+        <v>64.34001000000001</v>
       </c>
       <c r="H26">
-        <v>62.7654157191024</v>
+        <v>128.68002</v>
       </c>
       <c r="I26">
-        <v>0.1719324669008976</v>
+        <v>0.1635830409448661</v>
       </c>
       <c r="J26">
-        <v>0.1719324669008976</v>
+        <v>0.1153448476061565</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>10505.9284098293</v>
+        <v>10889.93887703096</v>
       </c>
       <c r="R26">
-        <v>10505.9284098293</v>
+        <v>43559.75550812383</v>
       </c>
       <c r="S26">
-        <v>0.04912373143014078</v>
+        <v>0.04505543866553831</v>
       </c>
       <c r="T26">
-        <v>0.04912373143014078</v>
+        <v>0.02332055800339212</v>
       </c>
     </row>
   </sheetData>
